--- a/public/data/fish.xlsx
+++ b/public/data/fish.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -65,7 +65,7 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>Lele</t>
+    <t>Catfish</t>
   </si>
   <si>
     <t>lele</t>
@@ -86,40 +86,40 @@
     <t>20-80</t>
   </si>
   <si>
-    <t>Air Tawar</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kolam lele dapat berbentuk tanah, terpal maupun semen. Pastikan kolam yang memiliki ukuran yang besar sehingga mengurangi risiko ikan lele mati karena kekurangan oksigen. Sebelum melakukan pengisian kolam, pastikan air yang diisi diberi cukup jarak sehingga ikan lele tidak kepanasan. Persiapan kolam yang dilakukan yaitu pertama mengisi kolam dengan air setinggi maks. 30 cm.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sebelum menebar benih lele ke dalam kolam, harus ditunggu duklu proses pembentukan lumut dan fitoplankton yang dapat menetralkan air kolam agar tidak mudah keruh. Penumbuh plankton ditambahkan sebanyak 1 tutup botol dan biarkan selama 5 hari. Jika plankton sudah tumbuhyang ditandai warna air kehijau-hijauan, tambahkan air sampai mencapai 70 cm.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sebelum melakukan penebaran, ada beberapa langkah yang perlu diikuti. Pertama, larutkan larutan garam dapur dalam air bersih dengan perbandingan 1:1000. Rendam benih ikan lele dalam larutan garam tersebut selama 5-10 menit untuk membantu mencegah infeksi. Setelah direndam, benih ikan lele siap untuk ditebar. Selanjutnya, tebarkan benih ikan lele secara merata di seluruh kolam. Pastikan penebaran benih dilakukan dengan hati-hati agar tidak ada kerusakan pada benih. Setelah ditebar, biarkan benih ikan lele beradaptasi dengan lingkungan kolam selama beberapa waktu sebelum memasuki masa budidaya secara penuh.&lt;/p&gt;
-&lt;p&gt;Pada masa penebaran benih, penting untuk menjaga kualitas air kolam dan memberikan pakan yang cukup untuk mendukung pertumbuhan benih ikan lele. Dengan melakukan langkah-langkah ini dengan baik, diharapkan benih ikan lele akan berkembang dengan baik dan siap untuk memasuki masa budidaya selanjutnya.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Selama masa budidaya ikan lele, ada beberapa tindakan penting yang perlu dilakukan untuk menjaga pertumbuhan dan kesehatan ikan lele. Berikut adalah beberapa hal yang harus dilakukan selama masa budidaya ikan lele:&lt;/p&gt;
+    <t>Fresh Water</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Catfish ponds can be earthen, tarpaulin or cement. Make sure the pond has a large size so as to reduce the risk of catfish dying due to lack of oxygen. Before filling the pond, make sure the filled water is given enough distance so that the catfish do not overheat. Pond preparation is done by first filling the pond with water as high as max. 30 cm.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Before spreading catfish seeds into the pond, the formation of moss and phytoplankton must be waited for, which can neutralize the pond water so that it is not easily cloudy. Plankton growers are added as much as 1 bottle cap and left for 5 days. If the plankton has grown marked by greenish water color, add water until it reaches 70 cm.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Before stocking, there are several steps that need to be followed. First, dissolve a solution of table salt in clean water in a ratio of 1:1000. Soak the catfish fry in the salt solution for 5-10 minutes to help prevent infection. After soaking, the catfish fry are ready to be stocked. Next, spread the catfish seeds evenly throughout the pond. Make sure to spread the seeds carefully so that there is no damage to the seeds. After stocking, let the catfish seeds adapt to the pond environment for some time before entering the full cultivation period.&lt;/p&gt;
+&lt;p&gt;During the fry stocking period, it is important to maintain the pond water quality and provide sufficient feed to support the growth of the catfish fry. By doing these steps properly, it is expected that the catfish fry will develop well and be ready to enter the next cultivation period.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;During the catfish farming period, there are some important actions that need to be taken to maintain the growth and health of the catfish. Here are some of the things to do during catfish farming:&lt;/p&gt;
 &lt;ol&gt;
-&lt;li&gt;Pemberian pakan yang tepat: Berikan pakan yang sesuai dengan ukuran dan kebutuhan ikan lele Anda. Pastikan Anda memberikan pakan yang cukup dalam jumlah yang tepat dan dengan frekuensi yang konsisten. Monitor pertumbuhan ikan lele dan sesuaikan pola pemberian pakan jika diperlukan.&lt;/li&gt;
-&lt;li&gt;Pengelolaan kualitas air: Pantau kualitas air secara teratur untuk memastikan bahwa parameter seperti pH, suhu, oksigen terlarut, dan amonia tetap dalam kisaran yang sesuai. Jika ada perubahan yang signifikan, lakukan tindakan perbaikan seperti penggantian air atau penggunaan teknik pengolahan air yang diperlukan.&lt;/li&gt;
-&lt;li&gt;Pemeliharaan suhu yang tepat: Suhu air yang sesuai penting untuk pertumbuhan dan kesehatan ikan lele. Pastikan suhu air tetap dalam rentang yang optimal untuk ikan lele, yaitu sekitar 25-30&amp;deg;C. Gunakan peralatan pemanas atau penyejuk air jika diperlukan.&lt;/li&gt;
-&lt;li&gt;Pemeliharaan kebersihan kolam: Jaga kebersihan kolam dengan rutin membersihkan kotoran, sisa pakan, dan bahan organik lainnya. Gunakan sistem filtrasi atau saringan untuk menjaga kualitas air dan hindari penumpukan lumpur di dasar kolam.&lt;/li&gt;
-&lt;li&gt;Manajemen kepadatan populasi: Perhatikan kepadatan populasi ikan lele di kolam. Jangan mengoverpopulasikan kolam karena hal ini dapat mengganggu pertumbuhan dan kesehatan ikan lele. Pastikan ada cukup ruang untuk ikan bergerak dan tumbuh dengan baik.&lt;/li&gt;
-&lt;li&gt;Pemantauan kesehatan ikan: Pantau kesehatan ikan secara rutin. Perhatikan tanda-tanda penyakit seperti perubahan perilaku, munculnya luka, perubahan warna, atau gejala penyakit lainnya. Jika ditemukan tanda-tanda penyakit, lakukan tindakan pengobatan yang sesuai atau konsultasikan dengan ahli akuakultur.&lt;/li&gt;
-&lt;li&gt;Manajemen pencegahan penyakit: Terapkan langkah-langkah pencegahan penyakit yang efektif. Ini termasuk melakukan karantina terhadap benih baru sebelum ditempatkan di kolam, menjaga kebersihan peralatan dan infrastruktur, dan menjaga kebersihan diri dan sanitasi saat berinteraksi dengan ikan.&lt;/li&gt;
-&lt;li&gt;Pemantauan pertumbuhan: Catat dan pantau pertumbuhan ikan lele secara teratur. Ini akan membantu Anda mengevaluasi efisiensi produksi dan memastikan kinerja budidaya yang optimal.&lt;/li&gt;
-&lt;li&gt;Pemasaran dan penjualan: Siapkan rencana pemasaran dan penjualan ikan lele Anda. Cari peluang pasar dan jalin kerjasama dengan pembeli potensial. Pastikan Anda memiliki jaringan distribusi yang memadai untuk menjual ikan lele Anda.&lt;/li&gt;
-&lt;li&gt;Evaluasi dan pembelajaran: Selalu lakukan evaluasi terhadap budidaya ikan lele Anda. Identifikasi aspek yang berhasil dan yang perlu diperbaiki. Terus tingkatkan pengetahuan dan keterampilan Anda dalam budidaya ikan lele dengan membaca literatur, menghadiri pelatihan, atau berkonsultasi dengan ahli.&lt;/li&gt;
+&lt;li&gt;Proper feeding: Feed according to the size and needs of your catfish. Make sure you feed enough in the right amount and with consistent frequency. Monitor the growth of the catfish and adjust the feeding pattern if needed.&lt;/li&gt;
+&lt;li&gt;Water quality management: Monitor water quality regularly to ensure that parameters such as pH, temperature, dissolved oxygen and ammonia remain within the appropriate range. If there are any significant changes, take corrective actions such as water replacement or use of necessary water treatment techniques.&lt;/li&gt;
+&lt;li&gt;Maintenance of proper temperature: Appropriate water temperature is important for catfish growth and health. Ensure that the water temperature remains within the optimal range for catfish, which is around 25-30&amp;deg;C. Use heating equipment or water conditioning if needed.&lt;/li&gt;
+&lt;li&gt;Maintenance of pond cleanliness: Keep the pond clean by regularly removing debris, feed residue, and other organic matter. Use a filtration system to maintain water quality and avoid silt buildup at the bottom of the pond.&lt;/li&gt;
+&lt;li&gt;Population density management: Pay attention to the population density of the catfish in the pond. Do not overpopulate the pond as this can compromise the growth and health of the catfish. Make sure there is enough space for the fish to move around and grow well.&lt;/li&gt;
+&lt;li&gt;Fish health monitoring: Monitor the health of the fish regularly. Look out for signs of disease such as behavioral changes, sores, discoloration, or other symptoms of disease. If signs of disease are found, take appropriate treatment measures or consult an aquaculture expert.&lt;/li&gt;
+&lt;li&gt;Disease prevention management: Implement effective disease prevention measures. This includes quarantining new fry before they are placed in the pond, keeping equipment and infrastructure clean, and maintaining personal hygiene and sanitation when interacting with fish.&lt;/li&gt;
+&lt;li&gt;Growth monitoring: Record and monitor catfish growth regularly. This will help you evaluate production efficiency and ensure optimal farming performance.&lt;/li&gt;
+&lt;li&gt;Marketing and sales: Prepare a marketing and sales plan for your catfish. Look for market opportunities and collaborate with potential buyers. Make sure you have an adequate distribution network to sell your catfish.&lt;/li&gt;
+&lt;li&gt;Evaluation and learning: Always evaluate your catfish farming. Identify aspects that worked and those that need improvement. Continuously improve your knowledge and skills in catfish farming by reading literature, attending trainings, or consulting experts.&lt;/li&gt;
 &lt;/ol&gt;
-&lt;p&gt;Dengan mengikuti langkah-langkah ini dan tetap konsisten dalam pemeliharaan, Anda dapat meningkatkan peluang keberhasilan dalam budidaya ikan lele.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>2023-07-06 19:58:26</t>
-  </si>
-  <si>
-    <t>2023-07-08 20:04:14</t>
-  </si>
-  <si>
-    <t>Nila</t>
+&lt;p&gt;By following these steps and staying consistent in maintenance, you can increase your chances of success in catfish farming.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:07:39</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:55:15</t>
+  </si>
+  <si>
+    <t>Nile Tilapia</t>
   </si>
   <si>
     <t>nila</t>
@@ -140,39 +140,42 @@
     <t>30-90</t>
   </si>
   <si>
-    <t>&lt;p&gt;Untuk mempersiapkan media air yang cocok bagi ikan nila, ada beberapa langkah yang dapat diikuti.&lt;/p&gt;
+    <t>&lt;p&gt;To prepare a suitable water medium for tilapia, there are several steps that can be followed.&lt;/p&gt;
 &lt;ol&gt;
-&lt;li&gt;Pembersihan wadah air: Jika Anda menggunakan akuarium atau kolam yang sudah ada, pastikan untuk membersihkannya terlebih dahulu. Bersihkan dinding-dindingnya dengan sikat akuarium dan bilas dengan air bersih. Pastikan tidak ada sisa-sisa deterjen atau bahan kimia lainnya yang tersisa sebelum mengisi air.&lt;/li&gt;
-&lt;li&gt;Air bersih: Isi wadah dengan air bersih. Jika memungkinkan, gunakan air yang sudah dibiarkan mengendap selama 24-48 jam untuk menghilangkan klorin yang mungkin ada. Alternatifnya, Anda bisa menggunakan penghilang klorin yang aman untuk ikan, yang tersedia di toko hewan peliharaan.&lt;/li&gt;
-&lt;li&gt;Suhu air: Periksa suhu air dan pastikan berada dalam rentang yang sesuai untuk ikan nila (25-29 derajat Celsius atau 77-84 derajat Fahrenheit). Jika perlu, gunakan pemanas atau pendingin air untuk menyesuaikan suhu sesuai kebutuhan.&lt;/li&gt;
-&lt;li&gt;Pengukuran pH: Gunakan alat pengukur pH atau tes kit untuk mengukur pH air. Pastikan pH air berada dalam rentang yang disarankan untuk ikan nila (6-8). Jika pH terlalu tinggi atau rendah, Anda dapat menggunakan pengatur pH yang cocok untuk menyesuaikan nilainya.&lt;/li&gt;
-&lt;li&gt;Kualitas air: Periksa parameter lain seperti kekeruhan air, tingkat amonia, nitrit, dan nitrat. Pastikan bahwa kualitas air berada dalam kondisi yang baik dan tidak ada tingkat yang berbahaya bagi ikan nila. Jika diperlukan, gunakan sistem filtrasi yang tepat dan lakukan perubahan air secara teratur untuk menjaga kualitas air yang optimal.&lt;/li&gt;
-&lt;li&gt;Penambahan dekorasi: Jika Anda ingin menambahkan dekorasi seperti batu, tanaman, atau struktur lainnya, pastikan bahan-bahan tersebut aman dan tidak merusak kualitas air. Pilih bahan yang dirancang khusus untuk akuarium dan cuci bersih sebelum menambahkannya ke dalam air.&lt;/li&gt;
+&lt;li&gt;Cleaning the water container: If you are using an existing aquarium or pond, make sure to clean it first. Clean the walls with an aquarium brush and rinse with clean water. Make sure no traces of detergent or other chemicals remain before filling the water.&lt;/li&gt;
+&lt;li&gt;Clean water: Fill the container with clean water. If possible, use water that has been allowed to settle for 24-48 hours to remove any chlorine that may be present. Alternatively, you can use a fish-safe chlorine remover, which is available at pet stores.&lt;/li&gt;
+&lt;li&gt;Water temperature: Check the water temperature and make sure it is within the appropriate range for tilapia (25-29 degrees Celsius or 77-84 degrees Fahrenheit). If necessary, use a water heater or cooler to adjust the temperature as needed.&lt;/li&gt;
+&lt;li&gt;pH measurement: Use a pH meter or test kit to measure the pH of the water. Make sure the pH of the water is within the recommended range for tilapia (6-8). If the pH is too high or low, you can use a suitable pH regulator to adjust the value.&lt;/li&gt;
+&lt;li&gt;Water quality: Check other parameters such as water turbidity, ammonia, nitrite, and nitrate levels. Ensure that the water quality is in good condition and there are no levels that are harmful to tilapia. If required, use a proper filtration system and perform regular water changes to maintain optimal water quality.&lt;/li&gt;
+&lt;li&gt;Adding decorations: If you want to add decorations such as rocks, plants, or other structures, make sure the materials are safe and do not harm the water quality. Choose materials specifically designed for aquariums and wash them thoroughly before adding them to the water.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Penebaran benih ikan nila adalah proses memasukkan benih ikan nila ke dalam kolam atau tambak untuk pemeliharaan lebih lanjut. Berikut adalah langkah-langkah melakukan penebaran benih ikan nila:&lt;/p&gt;
+    <t>&lt;p&gt;Tilapia fry stocking is the process of introducing tilapia fry into ponds for further rearing. Here are the steps for stocking tilapia seeds:&lt;/p&gt;
 &lt;ol&gt;
-&lt;li&gt;Persiapan kolam atau tambak: Pastikan kolam atau tambak telah dipersiapkan dengan baik sebelum penebaran benih. Bersihkan kolam dari kotoran, alga, atau bahan lain yang dapat mengganggu pertumbuhan ikan nila. Pastikan sistem drainase dan sirkulasi air berfungsi dengan baik.&lt;/li&gt;
-&lt;li&gt;Penyesuaian kondisi air: Periksa kualitas air seperti suhu, pH, oksigen terlarut, dan parameter lainnya. Pastikan kondisi air sesuai dengan persyaratan optimal untuk pertumbuhan ikan nila. Lakukan penyesuaian suhu dan pH jika diperlukan.&lt;/li&gt;
-&lt;li&gt;Pilih benih yang sehat: Pilih benih ikan nila yang sehat dari sumber yang terpercaya. Benih yang sehat memiliki penampilan yang baik, aktif, dan bebas dari penyakit atau deformitas.&lt;/li&gt;
-&lt;li&gt;Aklimatisasi benih: Sebelum memasukkan benih ke dalam kolam, lakukan proses aklimatisasi terlebih dahulu. Ini melibatkan memasukkan benih ke dalam wadah dengan air dari kolam dan secara perlahan menyesuaikan suhu airnya selama sekitar 15-30 menit. Hal ini membantu benih beradaptasi dengan perubahan suhu dan kondisi air sebelum dilepas ke kolam.&lt;/li&gt;
-&lt;li&gt;Penebaran benih: Setelah proses aklimatisasi, benih ikan nila dapat dilepas ke dalam kolam. Pastikan benih tersebar merata di seluruh kolam atau tambak untuk memaksimalkan ruang pertumbuhan.&lt;/li&gt;
-&lt;li&gt;Monitor dan perawatan: Setelah penebaran, pantau benih secara teratur. Periksa kehidupan benih, tingkat pertumbuhan, kualitas air, dan segera tanggapi masalah yang muncul. Berikan pakan yang sesuai dan lakukan perawatan rutin seperti pergantian air, pemeliharaan filter, dan pengendalian hama/penyakit jika diperlukan.&lt;/li&gt;
+&lt;li&gt;Pond or pond preparation: Make sure the pond or pond is well prepared before stocking the fry. Clean the pond from dirt, algae, or other materials that can interfere with the growth of tilapia. Make sure the drainage and water circulation systems are functioning properly.&lt;/li&gt;
+&lt;li&gt;Adjustment of water conditions: Check the water quality such as temperature, pH, dissolved oxygen, and other parameters. Ensure that the water conditions match the optimal requirements for tilapia growth. Make temperature and pH adjustments if necessary.&lt;/li&gt;
+&lt;li&gt;Choose healthy fry: Choose healthy tilapia fry from a reliable source. Healthy fry have a good appearance, are active, and free from disease or deformities.&lt;/li&gt;
+&lt;li&gt;Seed acclimatization: Before putting the seeds into the pond, go through the acclimatization process first. This involves putting the fry into a container with water from the pond and slowly adjusting the water temperature for about 15-30 minutes. This helps the fry adapt to the change in temperature and water conditions before being released into the pond.&lt;/li&gt;
+&lt;li&gt;Seed stocking: After the acclimatization process, tilapia fry can be released into the pond. Make sure the fry are evenly distributed throughout the pond to maximize growth space.&lt;/li&gt;
+&lt;li&gt;Monitor and care: After stocking, monitor the fry regularly. Check the fry's life, growth rate, water quality, and respond immediately to any problems that arise. Feed accordingly and perform regular maintenance such as water changes, filter maintenance, and pest/disease control if needed.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Berikut adalah penjelasan mengenai beberapa tahapan dalam masa budidaya ikan nila:&lt;/p&gt;
+    <t>&lt;p&gt;The following is an explanation of some of the stages in tilapia farming:&lt;/p&gt;
 &lt;ol&gt;
-&lt;li&gt;Pemilihan Benih: Tahap pertama adalah memilih benih ikan nila yang sehat dan berkualitas dari sumber yang terpercaya. Benih yang sehat memiliki ukuran seragam dan bebas dari penyakit atau deformitas.&lt;/li&gt;
-&lt;li&gt;Pendederan: Tahap ini melibatkan pemeliharaan benih ikan nila dalam kolam atau tangki kecil yang disebut pendederan. Benih ini diberi pakan yang sesuai dan kondisi air yang optimal untuk mempromosikan pertumbuhan yang baik.&lt;/li&gt;
-&lt;li&gt;Pembesaran: Setelah mencapai ukuran tertentu di pendederan, benih ikan nila kemudian dipindahkan ke kolam atau tambak yang lebih besar untuk tahap pembesaran. Pada tahap ini, mereka diberi pakan secara teratur dan kondisi air dipantau secara rutin untuk memastikan pertumbuhan yang optimal.&lt;/li&gt;
-&lt;li&gt;Pemeliharaan dan Pengelolaan: Selama masa budidaya, penting untuk menjaga kualitas air yang baik dengan memonitor suhu, pH, oksigen terlarut, dan parameter lainnya. Pemberian pakan yang seimbang dan rutin, perawatan filter, serta pengendalian penyakit dan hama juga merupakan bagian penting dari pemeliharaan ikan nila.&lt;/li&gt;
-&lt;li&gt;Panen: Tahap terakhir dalam masa budidaya adalah panen ikan nila ketika mereka mencapai ukuran yang diinginkan untuk tujuan komersial atau hobi. Panen dilakukan dengan hati-hati untuk meminimalkan stres pada ikan dan mempertahankan kualitas ikan yang optimal.&lt;/li&gt;
+&lt;li&gt;Seed Selection: The first step is to select healthy, quality tilapia fry from a reliable source. Healthy seeds are uniform in size and free from disease or deformities.&lt;/li&gt;
+&lt;li&gt;Seeding: This stage involves raising tilapia fry in small ponds or tanks called nurseries. These fry are given suitable feed and optimal water conditions to promote good growth.&lt;/li&gt;
+&lt;li&gt;Enlargement: After reaching a certain size in the nursery, tilapia fry are then transferred to larger ponds or farms for the enlargement stage. At this stage, they are fed regularly and water conditions are monitored regularly to ensure optimal growth.&lt;/li&gt;
+&lt;li&gt;Maintenance and Management: During the culture period, it is important to maintain good water quality by monitoring temperature, pH, dissolved oxygen, and other parameters. Balanced and regular feeding, filter maintenance, and disease and pest control are also important parts of tilapia rearing.&lt;/li&gt;
+&lt;li&gt;Harvesting: The final stage in the culture period is the harvesting of tilapia when they reach the desired size for commercial or hobby purposes. Harvesting is done carefully to minimize stress on the fish and maintain optimal fish quality.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Patin</t>
+    <t>2023-07-11 19:46:05</t>
+  </si>
+  <si>
+    <t>Pangas Catfish</t>
   </si>
   <si>
     <t>patin</t>
@@ -190,38 +193,41 @@
     <t>30-80</t>
   </si>
   <si>
-    <t>&lt;p&gt;Berikut adalah beberapa langkah untuk mempersiapkan media air untuk ikan patin:&lt;/p&gt;
+    <t>&lt;p&gt;Here are some steps to prepare water media for pangas catfish:&lt;/p&gt;
 &lt;ol&gt;
-&lt;li&gt;Pengisian air: Mulailah dengan mengisi wadah atau kolam dengan air bersih. Pastikan air yang digunakan bebas dari zat-zat berbahaya seperti klorin atau logam berat. Jika air keran Anda mengandung klorin, Anda dapat menggunakan bahan penghilang klorin yang tersedia di pasaran.&lt;/li&gt;
-&lt;li&gt;Pengukuran dan penyesuaian pH: Ukur pH air menggunakan alat pengukur pH yang akurat. Suhu yang disarankan untuk ikan patin berkisar antara 6 hingga 8. Jika pH air terlalu tinggi atau terlalu rendah, Anda dapat menggunakan bahan peningkat atau penurun pH yang sesuai untuk menyesuaikannya. Ikuti petunjuk penggunaan pada produk yang Anda gunakan.&lt;/li&gt;
-&lt;li&gt;Kualitas air: Pastikan kualitas air optimal untuk ikan patin. Periksa tingkat amonia, nitrit, dan nitrat dalam air. Tingkat amonia dan nitrit harus tetap rendah atau tidak terdeteksi, sementara tingkat nitrat dapat ditoleransi dalam batas yang wajar. Jika ada masalah dengan kualitas air, langkah-langkah seperti pembersihan dan penggantian air rutin, serta penggunaan filter atau sistem filtrasi, dapat membantu menjaga kualitas air yang baik.&lt;/li&gt;
-&lt;li&gt;Oksigenasi air: Ikan patin membutuhkan oksigen yang cukup dalam air. Pastikan ada sirkulasi dan oksigenasi yang baik dalam wadah atau kolam tempat ikan patin akan ditempatkan. Anda dapat menggunakan aerator atau pompa udara untuk membantu menyediakan oksigen tambahan ke dalam air.&lt;/li&gt;
-&lt;li&gt;Suhu air: Pastikan suhu air berada dalam rentang yang sesuai untuk ikan patin, yaitu sekitar 25 hingga 30 derajat Celsius. Jika perlu, gunakan pemanas atau chiller untuk menjaga suhu air yang stabil tergantung pada kondisi lingkungan.&lt;/li&gt;
-&lt;li&gt;Cek kondisi lingkungan: Pastikan lingkungan di sekitar wadah atau kolam ikan patin juga memenuhi kebutuhan mereka. Jaga agar lingkungan bersih dan bebas dari bahan kimia atau polutan yang dapat berdampak negatif pada ikan patin.&lt;/li&gt;
+&lt;li&gt;Water filling: Start by filling the container or pond with clean water. Ensure that the water used is free from harmful substances such as chlorine or heavy metals. If your tap water contains chlorine, you can use commercially available chlorine removal agents.&lt;/li&gt;
+&lt;li&gt;pH measurement and adjustment: Measure the pH of the water using an accurate pH meter. The recommended temperature for catfish ranges from 6 to 8. If the water pH is too high or too low, you can use an appropriate pH increasing or decreasing agent to adjust it. Follow the usage instructions on the product you are using.&lt;/li&gt;
+&lt;li&gt;Water quality: Ensure that the water quality is optimal for catfish. Check the level of ammonia, nitrite and nitrate in the water. Ammonia and nitrite levels should remain low or undetectable, while nitrate levels can be tolerated within reasonable limits. If there are issues with water quality, measures such as regular cleaning and water changes, as well as the use of filters or filtration systems, can help maintain good water quality.&lt;/li&gt;
+&lt;li&gt;Water oxygenation: Catfish need sufficient oxygen in the water. Make sure there is good circulation and oxygenation in the container or pond where the catfish will be placed. You can use aerators or air pumps to help provide additional oxygen to the water.&lt;/li&gt;
+&lt;li&gt;Water temperature: Ensure that the water temperature is within the appropriate range for catfish, which is around 25 to 30 degrees Celsius. If necessary, use a heater or chiller to maintain a stable water temperature depending on the environmental conditions.&lt;/li&gt;
+&lt;li&gt;Check the environmental conditions: Ensure that the environment around the catfish container or pond also meets their needs. Keep the environment clean and free from chemicals or pollutants that can negatively affect the catfish.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Berikut adalah langkah-langkah dalam melakukan penebaran benih ikan patin:&lt;/p&gt;
+    <t>&lt;p&gt;Here are the steps in stocking pangas catfish fry:&lt;/p&gt;
 &lt;ol&gt;
-&lt;li&gt;Persiapan kolam atau wadah: Pastikan kolam atau wadah yang akan digunakan untuk penebaran benih ikan patin sudah siap. Kolam tersebut sebaiknya memiliki ukuran yang sesuai dengan jumlah benih yang akan ditebar. Pastikan kolam tersebut bersih dan telah diisi dengan air yang sesuai dengan kondisi yang dibutuhkan oleh ikan patin.&lt;/li&gt;
-&lt;li&gt;Kondisi air: Pastikan kualitas air di kolam sesuai dengan kebutuhan ikan patin. Periksa pH air, suhu, dan kualitas air lainnya seperti tingkat amonia, nitrit, dan nitrat. Jika diperlukan, lakukan penyesuaian pH dan periksa tingkat amonia, nitrit, dan nitrat untuk memastikan kondisi air yang optimal bagi benih ikan patin.&lt;/li&gt;
-&lt;li&gt;Pemberian pakan awal: Beberapa hari sebelum penebaran benih ikan patin, berikan pakan awal berupa pakan tepung atau pelet yang sesuai dengan ukuran benih. Hal ini bertujuan untuk mempersiapkan benih ikan patin agar lebih siap untuk menerima pakan dan meminimalkan stres pasca-penebaran.&lt;/li&gt;
-&lt;li&gt;Penebaran benih: Penebaran benih ikan patin dapat dilakukan dengan menggunakan keranjang jaring atau wadah lain yang cocok. Pilih waktu penebaran yang tepat, biasanya di pagi atau sore hari ketika suhu air relatif stabil. Pastikan untuk meratakan penebaran benih sehingga mereka tersebar dengan baik di kolam.&lt;/li&gt;
-&lt;li&gt;Pengamatan dan pemantauan: Setelah benih ikan patin ditebar, perhatikan dan monitor kondisi mereka dengan cermat. Periksa apakah benih bergerak bebas, apakah mereka tampak sehat, dan apakah mereka mengkonsumsi pakan dengan baik. Jika ditemukan masalah atau gejala penyakit, segera ambil tindakan yang diperlukan, seperti mengonsultasikan dengan ahli atau dokter hewan ikan.&lt;/li&gt;
-&lt;li&gt;Pemberian pakan: Setelah benih ikan patin ditebar, berikan pakan secara teratur sesuai dengan ukuran dan kebutuhan mereka. Pilih jenis pakan yang sesuai dengan tahap pertumbuhan benih. Pastikan pakan tersebut mudah dicerna dan memberikan nutrisi yang dibutuhkan untuk pertumbuhan yang optimal.&lt;/li&gt;
+&lt;li&gt;Pond or container preparation: Make sure the pond or container that will be used for stocking catfish fry is ready. The pond should have a size that matches the number of seeds to be stocked. Make sure the pond is clean and filled with water that is suitable for the conditions needed by the pangas catfish.&lt;/li&gt;
+&lt;li&gt;Water conditions: Ensure that the water quality in the pond is suitable for the needs of the catfish. Check the water pH, temperature, and other water qualities such as ammonia, nitrite, and nitrate levels. If needed, make pH adjustments and check the ammonia, nitrite, and nitrate levels to ensure optimal water conditions for the pangas catfish fry.&lt;/li&gt;
+&lt;li&gt;Initial feeding: A few days before stocking the catfish fry, give them an initial feed of flour or pellets that are appropriate for the size of the fry. This aims to prepare the catfish fry to be more ready to receive feed and minimize post-feeding stress.&lt;/li&gt;
+&lt;li&gt;Seed stocking: Stocking catfish fry can be done using a mesh basket or other suitable container. Choose the right stocking time, usually in the morning or evening when the water temperature is relatively stable. Make sure to evenly spread the fry so that they are well dispersed in the pond.&lt;/li&gt;
+&lt;li&gt;Observation and monitoring: Once the catfish fry are stocked, watch and monitor their condition carefully. Check if the fry are moving freely, if they appear healthy, and if they are consuming feed well. If any problems or symptoms of disease are found, take the necessary actions immediately, such as consulting a fish expert or veterinarian.&lt;/li&gt;
+&lt;li&gt;Feeding: Once the catfish fry are stocked, feed them regularly according to their size and needs. Choose the type of feed that suits the growth stage of the fry. Ensure that the feed is easily digestible and provides the nutrients needed for optimal growth.&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Masa budidaya ikan patin adalah periode di mana ikan patin dipelihara dengan tujuan untuk mencapai ukuran panen yang diinginkan. Masa budidaya ikan patin melibatkan sejumlah langkah dan praktek yang harus diikuti untuk memastikan pertumbuhan dan kesehatan ikan yang optimal. Berikut adalah penjelasan tentang masa budidaya ikan patin:&lt;/p&gt;
+    <t>&lt;p&gt;The catfish farming period is the period during which catfish are reared with the aim of achieving the desired harvest size. It involves a number of steps and practices that must be followed to ensure optimal growth and health of the fish. The following is an explanation of the pangas catfish farming period:&lt;/p&gt;
 &lt;ol&gt;
-&lt;li&gt;Pemilihan benih: Masa budidaya dimulai dengan memilih benih ikan patin yang berkualitas baik. Pilih benih yang sehat, aktif, dan bebas dari penyakit atau cacat. Benih yang baik akan memiliki ukuran seragam dan beraktivitas dengan baik.&lt;/li&gt;
-&lt;li&gt;Persiapan lingkungan: Persiapkan kolam atau wadah yang sesuai untuk memelihara ikan patin. Pastikan lingkungan tersebut memiliki ukuran yang memadai dan dilengkapi dengan fasilitas seperti aerasi atau filter yang dapat mempertahankan kualitas air yang baik. Periksa juga suhu air, pH, dan kualitas air lainnya untuk memastikan kondisi yang optimal.&lt;/li&gt;
-&lt;li&gt;Pemberian pakan: Berikan pakan yang sesuai dengan ukuran dan tahap pertumbuhan ikan patin. Mulailah dengan pakan awal yang lebih kecil dan beralih ke pakan yang lebih besar seiring pertumbuhan ikan. Pastikan pakan yang diberikan berkualitas baik, mengandung nutrisi yang diperlukan, dan mudah dicerna oleh ikan patin.&lt;/li&gt;
-&lt;li&gt;Pemeliharaan dan pemantauan: Selama masa budidaya, perhatikan pertumbuhan dan kesehatan ikan patin secara rutin. Amati tanda-tanda penyakit atau masalah lainnya seperti perubahan perilaku, perubahan warna, atau gangguan makan. Jika ditemukan masalah, lakukan tindakan yang diperlukan seperti pengobatan penyakit atau perbaikan kondisi lingkungan.&lt;/li&gt;
-&lt;li&gt;Pengelolaan kualitas air: Jaga kualitas air secara optimal selama masa budidaya. Periksa secara teratur pH, suhu, amonia, nitrit, nitrat, dan oksigen dalam air. Jika ditemukan perubahan atau ketidakseimbangan, lakukan penyesuaian dan langkah perawatan yang diperlukan untuk menjaga kualitas air yang baik.&lt;/li&gt;
-&lt;li&gt;Penebaran pakan: Berikan pakan secara teratur dan dalam jumlah yang tepat. Perhatikan pola pakan ikan patin dan sesuaikan kebutuhan pakan sesuai dengan pertumbuhan mereka. Pastikan pakan yang tidak habis dimakan segera diangkat agar tidak mencemari lingkungan dan mempengaruhi kualitas air.&lt;/li&gt;
-&lt;li&gt;Waktu panen: Masa budidaya ikan patin berakhir dengan waktu panen yang tepat. Waktu panen dapat ditentukan berdasarkan ukuran panen yang diinginkan, biasanya ketika ikan patin mencapai ukuran yang ekonomis atau yang ditetapkan sebagai target panen.&lt;/li&gt;
+&lt;li&gt;Seed selection: The cultivation period starts with selecting good quality catfish fry. Choose fry that are healthy, active, and free from disease or defects. Good seeds will be uniform in size and active.&lt;/li&gt;
+&lt;li&gt;Preparation of the environment: Prepare a suitable pond or container for keeping catfish. Ensure that the environment is of adequate size and equipped with facilities such as aeration or filters that can maintain good water quality. Also check the water temperature, pH, and other water qualities to ensure optimal conditions.&lt;/li&gt;
+&lt;li&gt;Feeding: Feed according to the size and growth stage of the catfish. Start with a smaller initial feed and move to a larger feed as the fish grows. Ensure that the feed is of good quality, contains the necessary nutrients, and is easily digested by the pangas catfish.&lt;/li&gt;
+&lt;li&gt;Maintenance and monitoring: During the culture period, regularly monitor the growth and health of the catfish. Observe for signs of disease or other problems such as behavioral changes, color changes, or feeding disorders. If problems are found, take necessary actions such as disease treatment or improvement of environmental conditions.&lt;/li&gt;
+&lt;li&gt;Water quality management: Maintain optimal water quality throughout the cultivation period. Regularly check the pH, temperature, ammonia, nitrite, nitrate and oxygen in the water. If any changes or imbalances are found, make necessary adjustments and maintenance steps to maintain good water quality.&lt;/li&gt;
+&lt;li&gt;Feed stocking: Feed regularly and in the right amount. Pay attention to the feeding pattern of the catfish and adjust the feed requirement according to their growth. Ensure that uneaten feed is removed immediately so as not to pollute the environment and affect water quality.&lt;/li&gt;
+&lt;li&gt;Harvest time: The patin fish farming period ends with the right harvest time. Harvest time can be determined based on the desired harvest size, usually when the catfish reaches an economical size or what is set as the harvest target.&lt;/li&gt;
 &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:35:56</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -723,49 +729,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>40000</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
